--- a/costeo/saludConecelCosteado.xlsx
+++ b/costeo/saludConecelCosteado.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AX9"/>
+  <dimension ref="A1:BD8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -595,23 +595,53 @@
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
+          <t>distancia_min_km</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>cobertura_km</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>posible_cobertura</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>tecnologias</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>datos_moviles</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
           <t>acceso_fibra</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>fases</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>costeo</t>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>costeo_15</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>costeo_20</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>897</v>
+        <v>242</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -619,150 +649,145 @@
         </is>
       </c>
       <c r="C2">
-        <v>35095</v>
+        <v>6783</v>
       </c>
       <c r="D2">
-        <v>55541</v>
+        <v>15979</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CETAD NUEVOS HORIZONTES</t>
+          <t>DISPENSARIO MEDICO NUESTRA SEÑORA DE GUADALUPE</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>EL CABO S/N</t>
+          <t>La MISION DE GUADALUPE.  - JUNTO A LA IGLESIA DE LA MISION.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>72203492</t>
+          <t>72196106</t>
         </is>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>AZUAY</t>
+          <t>ZAMORA CHINCHIPE</t>
         </is>
       </c>
       <c r="J2">
-        <v>105</v>
+        <v>1901</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>PAUTE</t>
+          <t>ZAMORA</t>
         </is>
       </c>
       <c r="L2">
-        <v>10554</v>
+        <v>190152</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>EL CABO</t>
+          <t>GUADALUPE</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Z06</t>
+          <t>Z07</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>AZUAY, CANAR, MORONA SANTIAGO</t>
+          <t>EL ORO, LOJA, ZAMORA CHINCHIPE</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>01D06</t>
+          <t>19D01</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>EL PAN, GUACHAPALA, PAUTE, SEVILLA DE ORO</t>
+          <t>YACUAMBI,ZAMORA</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>01D06</t>
+          <t>19D01</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>EL PAN, GUACHAPALA, PAUTE, SEVILLA DE ORO</t>
+          <t>ZAMORA, YACUAMBI</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>01D06C02</t>
+          <t>19D01C05</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>NIVEL 3</t>
+          <t>NIVEL 2</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>HE</t>
+          <t>CCQA-HD</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>HOSPITAL ESPECIALIZADO</t>
+          <t>CENTRO CLINICO QUIRURGICO AMBULATORIO(HOSPITAL DEL DIA)</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>PRIVADO</t>
+          <t>ONG</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>SECTOR LA UNION</t>
+          <t>La Misión</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>SECTOR LA UNIÓN, A UNA CUADRA DEL SEGURO CAMPESINO.</t>
+          <t>Edificio: MISION DE GUADALUPE.  - JUNTO A LA IGLESIA DE LA MISION.</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Permiso aprobado</t>
+          <t>Inspección reprogramada</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>CENTROS ESPECIALIZADOS</t>
+          <t>CENTRO CLINICO QUIRURGICO AMBULATORIO (HOSPITAL DEL DIA)</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>ACESS-2021-Z06-0120048</t>
+          <t>n/a</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>44391</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>44756</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AH2">
-        <v>-2.853936</v>
+        <v>-3.846296</v>
       </c>
       <c r="AI2">
-        <v>-78.777062</v>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>Registrado</t>
-        </is>
+        <v>-78.892139</v>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
@@ -781,12 +806,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>-95</t>
+          <t>&lt;Nulo&gt;</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>-105</t>
+          <t>&lt;Nulo&gt;</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -796,7 +821,7 @@
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>-95</t>
+          <t>Sin cobertura 3G</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
@@ -805,31 +830,54 @@
         </is>
       </c>
       <c r="AS2">
-        <v>-295</v>
+        <v>0</v>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
           <t>CONECEL</t>
         </is>
       </c>
-      <c r="AU2">
-        <v>3.393276802330845</v>
-      </c>
       <c r="AV2">
+        <v>13.7965</v>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>0.98 1.18 1.05 0.98</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>UMTS LTE LTE LTE</t>
+        </is>
+      </c>
+      <c r="AZ2" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="BA2">
         <v>0</v>
       </c>
-      <c r="AW2" t="inlineStr">
+      <c r="BB2" t="inlineStr">
         <is>
           <t>Fase 1</t>
         </is>
       </c>
-      <c r="AX2">
-        <v>36498.56</v>
+      <c r="BC2">
+        <v>5934.64</v>
+      </c>
+      <c r="BD2">
+        <v>6604.41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>908</v>
+        <v>159</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -837,222 +885,245 @@
         </is>
       </c>
       <c r="C3">
-        <v>36434</v>
+        <v>1883</v>
       </c>
       <c r="D3">
-        <v>57147</v>
+        <v>2047</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CEME CEVALLOS DAVID LEONARDO</t>
+          <t>HOSPITAL BÁSICO FISCOMISIONAL FRANKLIN TELLO</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>DANIEL PALACIOS S/N y  ABDÓN CALDERÓN</t>
+          <t>MALECON S/N Y</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>72171088</t>
+          <t>62382171</t>
         </is>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>AZUAY</t>
+          <t>ORELLANA</t>
         </is>
       </c>
       <c r="J3">
-        <v>103</v>
+        <v>2202</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>GUALACEO</t>
+          <t>AGUARICO</t>
         </is>
       </c>
       <c r="L3">
-        <v>10350</v>
+        <v>220250</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>GUALACEO</t>
+          <t>NUEVO ROCAFUERTE</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Z06</t>
+          <t>Z02</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>AZUAY, CANAR, MORONA SANTIAGO</t>
+          <t>PICHINCHA, NAPO, ORELLANA</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>01D04</t>
+          <t>22D03</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>CHORDELEG, GUALACEO</t>
+          <t>AGUARICO</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>01D04</t>
+          <t>22D03</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>NULTI, PACCHA, RICAURTE, LLACAO, SIDCAY, OCTAVIO PALACIOS, CHECA, CHIQUINTAD, SININCAY, SAN JOAQUÍN, SAYAUSI, MACHÁNGARA, HMNO MIGUEL, EL VECINO, TOTORACOCHA, CAÑARIBAMBA, SAN BLAS, EL SAGRARIO, GIL RAMÍREZ DÁVALOS, BELLAVISTA, GUALACEO, CHORDELEG</t>
+          <t>AGUARICO</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>01D04C04</t>
+          <t>22D03C02</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>24 Horas</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>NIVEL 3</t>
+          <t>NIVEL 2</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>HE</t>
+          <t>HB</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>HOSPITAL ESPECIALIZADO</t>
+          <t>HOSPITAL BASICO</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>PRIVADO</t>
+          <t>FISCOMISIONAL</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>CETAD VIDA NUEVA</t>
+          <t>HOSPITAL FRANKLIN TELLO</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>San Pedro de los Olivos</t>
+          <t>NUEVO ROCAFUERTE</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>- A MEDIA CUADRA DEL MERCADO SAN JOSÉ.</t>
+          <t>- JUNTO AL MALECON.</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>SIN DATO</t>
+          <t>Permiso aprobado</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>SIN DATO</t>
+          <t>HOSPITAL BASICO</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>SIN DATO</t>
+          <t>ACESS-2021-Z02-0108005</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>SIN DATO</t>
+          <t>44218</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>SIN DATO</t>
+          <t>44583</t>
         </is>
       </c>
       <c r="AH3">
-        <v>-2.865475</v>
+        <v>-0.919482</v>
       </c>
       <c r="AI3">
-        <v>-78.796943</v>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>Registrado</t>
-        </is>
+        <v>-75.401702</v>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
+          <t>-85</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>&lt;Nulo&gt;</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>&lt;Nulo&gt;</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>&lt;Nulo&gt;</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>&lt;Nulo&gt;</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>&lt;Nulo&gt;</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
           <t>-105</t>
         </is>
       </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>&lt;Nulo&gt;</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>-140</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>-95</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>&lt;Nulo&gt;</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>&lt;Nulo&gt;</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>-95</t>
-        </is>
-      </c>
       <c r="AR3" t="inlineStr">
         <is>
           <t>Sin cobertura 4G</t>
         </is>
       </c>
       <c r="AS3">
-        <v>-435</v>
+        <v>-190</v>
       </c>
       <c r="AT3" t="inlineStr">
         <is>
           <t>CONECEL</t>
         </is>
       </c>
-      <c r="AU3">
-        <v>2.648568908348362</v>
-      </c>
       <c r="AV3">
+        <v>5.7562</v>
+      </c>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>0.98 1.18 0.98</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>GSM LTE LTE</t>
+        </is>
+      </c>
+      <c r="AZ3" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="BA3">
         <v>0</v>
       </c>
-      <c r="AW3" t="inlineStr">
+      <c r="BB3" t="inlineStr">
         <is>
           <t>Fase 1</t>
         </is>
       </c>
-      <c r="AX3">
-        <v>36498.56</v>
+      <c r="BC3">
+        <v>5934.64</v>
+      </c>
+      <c r="BD3">
+        <v>6604.41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>169</v>
+        <v>1001</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -1060,88 +1131,83 @@
         </is>
       </c>
       <c r="C4">
-        <v>2616</v>
+        <v>43485</v>
       </c>
       <c r="D4">
-        <v>2822</v>
+        <v>65400</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>HOSPITAL BASICO DE SIGCHOS</t>
+          <t>BELTRAN GALLEGOS ALBA BELEN</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>AV. GALO TROYA S/N</t>
+          <t>RIO AMAZONAS  y</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2714-619/2</t>
+          <t>22636660</t>
         </is>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>COTOPAXI</t>
+          <t>IMBABURA</t>
         </is>
       </c>
       <c r="J4">
-        <v>507</v>
+        <v>1003</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>SIGCHOS</t>
+          <t>COTACACHI</t>
         </is>
       </c>
       <c r="L4">
-        <v>50750</v>
+        <v>100358</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>SIGCHOS</t>
+          <t>VACAS GALINDO (EL CHURO) (CAB. EN SAN MIGUEL ALTO)</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Z03</t>
+          <t>Z01</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>COTOPAXI, TUNGURAHUA, CHIMBORAZO, PASTAZA</t>
+          <t>ESMERALDAS, CARCHI, IMBABURA, SUCUMBIOS</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>05D05</t>
+          <t>10D03</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>SIGCHOS</t>
+          <t>COTACACHI</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>05D04</t>
+          <t>10D03</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>SIGCHOS</t>
+          <t>COTACACHI</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>05D05C01</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>24 Horas</t>
+          <t>10D03C03</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -1151,88 +1217,88 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>HB</t>
+          <t>HG</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>HOSPITAL BASICO</t>
+          <t>HOSPITAL GENERAL</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>MSP</t>
+          <t>PRIVADO</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>HOSPITAL BASICO SIGCHOS</t>
+          <t>Hospital Padre Carollo</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>SAN SEBVASTIAN</t>
+          <t>SAN JOSE</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>ENTRADA A LA CIUDAD DE SIGCHOS</t>
+          <t>- A MEDIA CUADRA DE LA IGLESIA.</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Permiso aprobado</t>
+          <t>Anulada</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>HOSPITAL BASICO</t>
+          <t>HOSPITAL GENERAL</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>ACESS-2021-Z03-0112536</t>
+          <t>n/a</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>44269</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>44634</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AH4">
-        <v>-0.697244</v>
+        <v>0.28751</v>
       </c>
       <c r="AI4">
-        <v>-78.891251</v>
+        <v>-78.549683</v>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>-85</t>
+          <t>&lt;Nulo&gt;</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
+          <t>&lt;Nulo&gt;</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>&lt;Nulo&gt;</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
           <t>-105</t>
         </is>
       </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>-140</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>-85</t>
-        </is>
-      </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>-85</t>
+          <t>-105</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1242,7 +1308,7 @@
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>-105</t>
+          <t>Sin cobertura 3G</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
@@ -1251,31 +1317,54 @@
         </is>
       </c>
       <c r="AS4">
-        <v>-605</v>
+        <v>-210</v>
       </c>
       <c r="AT4" t="inlineStr">
         <is>
           <t>CONECEL</t>
         </is>
       </c>
-      <c r="AU4">
-        <v>2.102295426667456</v>
-      </c>
       <c r="AV4">
+        <v>4.0851</v>
+      </c>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>5.00 5.00 3.23</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>GSM UMTS LTE</t>
+        </is>
+      </c>
+      <c r="AZ4" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="BA4">
         <v>0</v>
       </c>
-      <c r="AW4" t="inlineStr">
+      <c r="BB4" t="inlineStr">
         <is>
           <t>Fase 1</t>
         </is>
       </c>
-      <c r="AX4">
-        <v>36498.56</v>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>760</v>
+        <v>837</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1283,88 +1372,83 @@
         </is>
       </c>
       <c r="C5">
-        <v>22680</v>
+        <v>28037</v>
       </c>
       <c r="D5">
-        <v>39600</v>
+        <v>46661</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FUNDACION ALEJANDRO CEDEÑO ANZOATEGUI</t>
+          <t>DE MORA ALVAREZ DIEGO RAMIRO</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CANTÓN SANTA LUCIA RECINTO SAN JUAN</t>
+          <t>ALBINO DEL CURTO S/N y  RIO ESMERALDAS</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>988239162</t>
+          <t>980291706</t>
         </is>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>GUAYAS</t>
+          <t>AZUAY</t>
         </is>
       </c>
       <c r="J5">
-        <v>918</v>
+        <v>113</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>SANTA LUCIA</t>
+          <t>SEVILLA DE ORO</t>
         </is>
       </c>
       <c r="L5">
-        <v>91850</v>
+        <v>11352</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>SANTA LUCIA</t>
+          <t>PALMAS</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Z05</t>
+          <t>Z06</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>GUAYAS, SANTA ELENA, LOS RIOS, BOLIVAR, GALAPAGOS</t>
+          <t>AZUAY, CANAR, MORONA SANTIAGO</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>09D19</t>
+          <t>01D06</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>DAULE,NOBOL,SANTA LUCIA</t>
+          <t>EL PAN, GUACHAPALA, PAUTE, SEVILLA DE ORO</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>09D19</t>
+          <t>01D06</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>DAULE, NOBOL, SANTA LUCÍA</t>
+          <t>EL PAN, GUACHAPALA, PAUTE, SEVILLA DE ORO</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>09D19C09</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>24 Horas</t>
+          <t>01D06C04</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -1374,68 +1458,73 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>HB</t>
+          <t>CCQA-HD</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>HOSPITAL BASICO</t>
+          <t>CENTRO CLINICO QUIRURGICO AMBULATORIO(HOSPITAL DEL DIA)</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>ONG</t>
+          <t>PRIVADO</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>FUNDACIÓN ALEJANDRO CEDEÑO ANZOATEGUI NRO.1 GUAYAS</t>
+          <t>COMERCIAL D´MORA.</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>SAN JUAN</t>
+          <t>centro</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>VIA A BERMEJO CANTON SANTA LUCIA</t>
+          <t>- DIAGONAL A LA IGLESIA ALBINO DEL CURTO..</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Cancelada</t>
+          <t>SIN DATO</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>HOSPITAL BASICO</t>
+          <t>SIN DATO</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>n/a</t>
+          <t>SIN DATO</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SIN DATO</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SIN DATO</t>
         </is>
       </c>
       <c r="AH5">
-        <v>-1.729816</v>
+        <v>-2.66667</v>
       </c>
       <c r="AI5">
-        <v>-79.995313</v>
+        <v>-78.58329999999999</v>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>Registrado</t>
+        </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>-95</t>
+          <t>&lt;Nulo&gt;</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1445,12 +1534,12 @@
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>-140</t>
+          <t>&lt;Nulo&gt;</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>-85</t>
+          <t>&lt;Nulo&gt;</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
@@ -1460,12 +1549,12 @@
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>-140</t>
+          <t>&lt;Nulo&gt;</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>-95</t>
+          <t>Sin cobertura 3G</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
@@ -1474,31 +1563,54 @@
         </is>
       </c>
       <c r="AS5">
-        <v>-555</v>
+        <v>0</v>
       </c>
       <c r="AT5" t="inlineStr">
         <is>
           <t>CONECEL</t>
         </is>
       </c>
-      <c r="AU5">
-        <v>1.497025874535632</v>
-      </c>
       <c r="AV5">
+        <v>2.814</v>
+      </c>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>5.00 3.15</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>UMTS LTE</t>
+        </is>
+      </c>
+      <c r="AZ5" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="BA5">
         <v>0</v>
       </c>
-      <c r="AW5" t="inlineStr">
+      <c r="BB5" t="inlineStr">
         <is>
           <t>Fase 1</t>
         </is>
       </c>
-      <c r="AX5">
-        <v>36498.56</v>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1506,83 +1618,83 @@
         </is>
       </c>
       <c r="C6">
-        <v>153</v>
+        <v>1049</v>
       </c>
       <c r="D6">
-        <v>159</v>
+        <v>1139</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>HOSPITAL BASICO DE SAN MIGUEL</t>
+          <t>HOSPITAL BASICO DE AMALUZA</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CALLE: JUAN PIO DE MORA</t>
+          <t>CALLE 27 DE ABRIL</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>32989112</t>
+          <t>72653265</t>
         </is>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>BOLIVAR</t>
+          <t>LOJA</t>
         </is>
       </c>
       <c r="J6">
-        <v>205</v>
+        <v>1106</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>ESPINDOLA</t>
         </is>
       </c>
       <c r="L6">
-        <v>20550</v>
+        <v>110650</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>AMALUZA</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Z05</t>
+          <t>Z07</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>GUAYAS, SANTA ELENA, LOS RIOS, BOLIVAR, GALAPAGOS</t>
+          <t>EL ORO, LOJA, ZAMORA CHINCHIPE</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>02D03</t>
+          <t>11D05</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>CHIMBO, SAN MIGUEL</t>
+          <t>ESPINDOLA</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>02D03</t>
+          <t>11D05</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>CHILLANES, CHIMBO, SAN MIGUEL</t>
+          <t>ESPÍNDOLA</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>02D03C04</t>
+          <t>11D05C03</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -1612,22 +1724,22 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>HOSPITAL BASICO SAN MIGUEL</t>
+          <t>AMALUZA</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>EL HOSPITAL</t>
+          <t>EL GUABO</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>FRENTE AL PATRONATO MUNICIPAL</t>
+          <t>A TRES CUADRAS DEL COLEGIO ROSA HERLINDA GARCIA DE GARCIA</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Inspección programada</t>
+          <t>Permiso aprobado</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1637,91 +1749,114 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>n/a</t>
+          <t>ACESS-2020-Z07-0104096</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>44168</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>44533</t>
         </is>
       </c>
       <c r="AH6">
-        <v>-1.706382</v>
+        <v>-4.581571</v>
       </c>
       <c r="AI6">
-        <v>-79.050411</v>
+        <v>-79.428854</v>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
+          <t>&lt;Nulo&gt;</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>&lt;Nulo&gt;</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>&lt;Nulo&gt;</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>&lt;Nulo&gt;</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>&lt;Nulo&gt;</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>&lt;Nulo&gt;</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
           <t>-85</t>
         </is>
       </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>-105</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>-140</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>-95</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>-105</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>&lt;Nulo&gt;</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr">
-        <is>
-          <t>-85</t>
-        </is>
-      </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>-140</t>
+          <t>Sin cobertura 4G</t>
         </is>
       </c>
       <c r="AS6">
-        <v>-755</v>
+        <v>-85</v>
       </c>
       <c r="AT6" t="inlineStr">
         <is>
           <t>CONECEL</t>
         </is>
       </c>
-      <c r="AU6">
-        <v>0.8846770574340284</v>
-      </c>
       <c r="AV6">
+        <v>0.427</v>
+      </c>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>UMTS</t>
+        </is>
+      </c>
+      <c r="AZ6" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="BA6">
         <v>0</v>
       </c>
-      <c r="AW6" t="inlineStr">
+      <c r="BB6" t="inlineStr">
         <is>
           <t>Fase 1</t>
         </is>
       </c>
-      <c r="AX6">
-        <v>36498.56</v>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>186</v>
+        <v>471</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1729,24 +1864,24 @@
         </is>
       </c>
       <c r="C7">
-        <v>3170</v>
+        <v>10448</v>
       </c>
       <c r="D7">
-        <v>33672</v>
+        <v>24250</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>GOBIERNO AUTONOMO DESCENTRALIZADO MUNICIPAL DEL CANTON LOMAS DE SARGENTILLO</t>
+          <t>BAJAÑA ARREAGA VICENTE JAVIER</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>AV. RIO AMAZONAS S/N Y CALLE 12 AVA. - CALLE 13 AVA.</t>
+          <t>AV. LIBERTADOR BOLIVAR S/N y</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>42799538</t>
+          <t>994937403</t>
         </is>
       </c>
       <c r="H7">
@@ -1758,19 +1893,19 @@
         </is>
       </c>
       <c r="J7">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>LOMAS DE SARGENTILLO</t>
+          <t>SAN JACINTO DE YAGUACHI</t>
         </is>
       </c>
       <c r="L7">
-        <v>92450</v>
+        <v>92056</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>LOMAS DE SARGENTILLO</t>
+          <t>VIRGEN DE FATIMA</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1785,32 +1920,27 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>09D14</t>
+          <t>09D21</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>ISIDRO AYORA,LOMAS DE SARGENTILLO,PEDRO CARBO</t>
+          <t>SAN JACINTO DE YAGUACHI</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>09D14</t>
+          <t>09D21</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>PEDRO CARBO, LOMAS DE SARGENTILLO, ISIDRO AYORA</t>
+          <t>SAN JACINTO DE YAGUACHI, ALFREDO BAQUERIZO MORENO, SIMÓN BOLÍVAR, EL TRIUNFO, GENERAL ANTONIO ELIZALDE, CRNEL. MARCELINO MARIDUEÑA, NARANJITO</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>09D14C05</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>24 Horas</t>
+          <t>09D21C04</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1820,131 +1950,129 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>CCQA-HD</t>
+          <t>HB</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>CENTRO CLINICO QUIRURGICO AMBULATORIO(HOSPITAL DEL DIA)</t>
+          <t>HOSPITAL BASICO</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>GAD</t>
+          <t>PRIVADO</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>UNIDAD MATERNO INFANTIL BELLY MORAN ESPINOZA</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>S/N</t>
+          <t>HOSPITAL BÁSICO BAJAÑA</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>FRENTE A LA TIENDA MI BARRIO BANCO DE GUAYAQUIL</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
+          <t>12 DE OCTUBRE</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
         <is>
           <t>Permiso aprobado</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>CENTRO CLINICO QUIRURGICO AMBULATORIO (HOSPITAL DEL DIA)</t>
-        </is>
-      </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>ACESS-2021-Z05-0117749</t>
+          <t>HOSPITAL BASICO</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>44351</t>
+          <t>ACESS-2021-Z05-0108777</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>44716</t>
+          <t>44225</t>
         </is>
       </c>
       <c r="AH7">
-        <v>-1.87265</v>
+        <v>-2.248548</v>
       </c>
       <c r="AI7">
-        <v>-80.08002</v>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>-95</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>&lt;Nulo&gt;</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>-140</t>
-        </is>
+        <v>-79.643252</v>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
+          <t>Best Signal Level (dBm) &gt;=-85</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>Best Signal Level (dBm) &gt;=-85</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>&lt;Nulo&gt;</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
           <t>-85</t>
         </is>
       </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>-95</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>&lt;Nulo&gt;</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr">
-        <is>
-          <t>-85</t>
-        </is>
-      </c>
       <c r="AR7" t="inlineStr">
         <is>
           <t>Sin cobertura 4G</t>
         </is>
       </c>
       <c r="AS7">
-        <v>-500</v>
+        <v>-85</v>
       </c>
       <c r="AT7" t="inlineStr">
         <is>
           <t>CONECEL</t>
         </is>
       </c>
-      <c r="AU7">
-        <v>0.6583850333377872</v>
-      </c>
       <c r="AV7">
+        <v>0.364</v>
+      </c>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>5.00 5.00 3.15 3.23</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t>GSM UMTS LTE LTE</t>
+        </is>
+      </c>
+      <c r="AZ7" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="BA7">
         <v>0</v>
       </c>
-      <c r="AW7" t="inlineStr">
+      <c r="BB7" t="inlineStr">
         <is>
           <t>Fase 1</t>
         </is>
       </c>
-      <c r="AX7">
-        <v>36498.56</v>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>206</v>
+        <v>527</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1952,430 +2080,209 @@
         </is>
       </c>
       <c r="C8">
-        <v>4783</v>
+        <v>11922</v>
       </c>
       <c r="D8">
-        <v>363</v>
+        <v>26012</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>HOSPITAL CLAUDIO BENATI DE ZUMBAHUA</t>
+          <t>SELLAN CONTRERAS JOMNY GUSTAVO</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>PADRE TONNY BRESCIANI 425</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>32672123</t>
+          <t>SAMBORONDON / SOLAR 18</t>
         </is>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>42024297</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>COTOPAXI</t>
-        </is>
-      </c>
-      <c r="J8">
-        <v>504</v>
+          <t>9</t>
+        </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>PUJILI</t>
-        </is>
-      </c>
-      <c r="L8">
-        <v>50458</v>
+          <t>916</t>
+        </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>ZUMBAHUA</t>
+          <t>91650</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Z03</t>
+          <t>SAMBORONDON (RURAL)</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>COTOPAXI, TUNGURAHUA, CHIMBORAZO, PASTAZA</t>
+          <t>Z08</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>05D04</t>
+          <t>D.M. DE GUAYAQUIL, DURAN, SAMBORONDON</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>PUJILI,SAQUISILI</t>
+          <t>09D23</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>05D04</t>
+          <t>SAMBORONDON</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>PUJILÍ, SAQUISILÍ, SIGCHOS</t>
+          <t>09D24</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>05D04C06</t>
+          <t>SAMBORONDÓN</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>24 Horas</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
+          <t>09D23C01</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
         <is>
           <t>NIVEL 2</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>HB</t>
-        </is>
-      </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>HOSPITAL BASICO</t>
+          <t>CCQA-HD</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>ONG</t>
+          <t>CENTRO CLINICO QUIRURGICO AMBULATORIO(HOSPITAL DEL DIA)</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>HOSPITAL CLAUDIO BENATTI</t>
+          <t>PRIVADO</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>HOSPITAL DEL DÍA SELLAN</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>ANTONIO HANNA</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
+          <t>Ciudadela: COOP. ANTONIO HANNA.  - JUNTO A CABINAS TELEFONICAS. MZ. 17-A COOP ANTONIO HANNA  SOLAR 18 (CALLE 31 DE OCTUBRE Y ROCAFUERTE)</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
           <t>Permiso aprobado</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>HOSPITAL BASICO</t>
-        </is>
-      </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>ACESS-2021-Z03-0116031</t>
+          <t>CENTRO CLINICO QUIRURGICO AMBULATORIO (HOSPITAL DEL DIA)</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>44323</t>
+          <t>ACESS-2021-Z08-0126212</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>44688</t>
+          <t>44474</t>
         </is>
       </c>
       <c r="AH8">
-        <v>-0.958346</v>
+        <v>-1.959833</v>
       </c>
       <c r="AI8">
-        <v>-78.89704999999999</v>
-      </c>
-      <c r="AK8" t="inlineStr">
+        <v>-79.725994</v>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>Best Signal Level (dBm) &gt;=-85</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>Best Signal Level (dBm) &gt;=-85</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>&lt;Nulo&gt;</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
         <is>
           <t>-85</t>
         </is>
       </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>&lt;Nulo&gt;</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>&lt;Nulo&gt;</t>
-        </is>
-      </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>-95</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>&lt;Nulo&gt;</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>&lt;Nulo&gt;</t>
-        </is>
-      </c>
-      <c r="AQ8" t="inlineStr">
-        <is>
-          <t>-95</t>
-        </is>
-      </c>
       <c r="AR8" t="inlineStr">
         <is>
           <t>Sin cobertura 4G</t>
         </is>
       </c>
       <c r="AS8">
-        <v>-275</v>
+        <v>-85</v>
       </c>
       <c r="AT8" t="inlineStr">
         <is>
           <t>CONECEL</t>
         </is>
       </c>
-      <c r="AU8">
-        <v>0.3454714980264895</v>
-      </c>
       <c r="AV8">
+        <v>0.2036</v>
+      </c>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>0.98 0.98 1.18 1.05</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr">
+        <is>
+          <t>GSM UMTS LTE LTE</t>
+        </is>
+      </c>
+      <c r="AZ8" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="BA8">
         <v>0</v>
       </c>
-      <c r="AW8" t="inlineStr">
+      <c r="BB8" t="inlineStr">
         <is>
           <t>Fase 1</t>
         </is>
       </c>
-      <c r="AX8">
-        <v>36498.56</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>232</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Punto</t>
-        </is>
-      </c>
-      <c r="C9">
-        <v>5557</v>
-      </c>
-      <c r="D9">
-        <v>5356</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>RUILOVA VELEZ NAPOLEON GEOVANNY</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>AV. EL TELEGRAFO SOLAR 21 y  GUAYAQUIL</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>42799037</t>
-        </is>
-      </c>
-      <c r="H9">
-        <v>9</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>GUAYAS</t>
-        </is>
-      </c>
-      <c r="J9">
-        <v>924</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>LOMAS DE SARGENTILLO</t>
-        </is>
-      </c>
-      <c r="L9">
-        <v>92450</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>LOMAS DE SARGENTILLO</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Z05</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>GUAYAS, SANTA ELENA, LOS RIOS, BOLIVAR, GALAPAGOS</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>09D14</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>ISIDRO AYORA,LOMAS DE SARGENTILLO,PEDRO CARBO</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>09D14</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>PEDRO CARBO, LOMAS DE SARGENTILLO, ISIDRO AYORA</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>09D14C05</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>NIVEL 2</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>CCQA-HD</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>CENTRO CLINICO QUIRURGICO AMBULATORIO(HOSPITAL DEL DIA)</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>PRIVADO</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>HOSPITAL DEL DÍA VIRGEN DEL CARMEN</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>GUAYAQUIL</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>FRENTE AL CHIFA WEI FENG</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Permiso aprobado</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>CENTRO CLINICO QUIRURGICO AMBULATORIO (HOSPITAL DEL DIA)</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>ACESS-2021-Z05-0124465</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>44454</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>44819</t>
-        </is>
-      </c>
-      <c r="AH9">
-        <v>-1.878085</v>
-      </c>
-      <c r="AI9">
-        <v>-80.08370600000001</v>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>-85</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>&lt;Nulo&gt;</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>-140</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>-85</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>-85</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>&lt;Nulo&gt;</t>
-        </is>
-      </c>
-      <c r="AQ9" t="inlineStr">
-        <is>
-          <t>-85</t>
-        </is>
-      </c>
-      <c r="AR9" t="inlineStr">
-        <is>
-          <t>Sin cobertura 4G</t>
-        </is>
-      </c>
-      <c r="AS9">
-        <v>-480</v>
-      </c>
-      <c r="AT9" t="inlineStr">
-        <is>
-          <t>CONECEL</t>
-        </is>
-      </c>
-      <c r="AU9">
-        <v>0.07931976990711816</v>
-      </c>
-      <c r="AV9">
+      <c r="BC8">
         <v>0</v>
       </c>
-      <c r="AW9" t="inlineStr">
-        <is>
-          <t>Fase 1</t>
-        </is>
-      </c>
-      <c r="AX9">
-        <v>36498.56</v>
+      <c r="BD8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
